--- a/natmiOut/OldD2/LR-pairs_lrc2p/Agt-Agtr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Agt-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.234928591778438</v>
+        <v>0.257198</v>
       </c>
       <c r="H2">
-        <v>0.234928591778438</v>
+        <v>0.5143960000000001</v>
       </c>
       <c r="I2">
-        <v>0.205696049029572</v>
+        <v>0.1969864112529235</v>
       </c>
       <c r="J2">
-        <v>0.205696049029572</v>
+        <v>0.1476779584913764</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.86799239367063</v>
+        <v>0.1409635</v>
       </c>
       <c r="N2">
-        <v>0.86799239367063</v>
+        <v>0.281927</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.127302058387171</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0886289202516707</v>
       </c>
       <c r="Q2">
-        <v>0.2039162307194367</v>
+        <v>0.03625553027300001</v>
       </c>
       <c r="R2">
-        <v>0.2039162307194367</v>
+        <v>0.145022121092</v>
       </c>
       <c r="S2">
-        <v>0.205696049029572</v>
+        <v>0.02507677562679894</v>
       </c>
       <c r="T2">
-        <v>0.205696049029572</v>
+        <v>0.01308853800606173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.784410941783681</v>
+        <v>0.257198</v>
       </c>
       <c r="H3">
-        <v>0.784410941783681</v>
+        <v>0.5143960000000001</v>
       </c>
       <c r="I3">
-        <v>0.6868054259340164</v>
+        <v>0.1969864112529235</v>
       </c>
       <c r="J3">
-        <v>0.6868054259340164</v>
+        <v>0.1476779584913764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.86799239367063</v>
+        <v>0.9663516666666667</v>
       </c>
       <c r="N3">
-        <v>0.86799239367063</v>
+        <v>2.899055</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.872697941612829</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9113710797483293</v>
       </c>
       <c r="Q3">
-        <v>0.6808627309802504</v>
+        <v>0.2485437159633334</v>
       </c>
       <c r="R3">
-        <v>0.6808627309802504</v>
+        <v>1.49126229578</v>
       </c>
       <c r="S3">
-        <v>0.6868054259340164</v>
+        <v>0.1719096356261245</v>
       </c>
       <c r="T3">
-        <v>0.6868054259340164</v>
+        <v>0.1345894204853147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.8072116666666668</v>
+      </c>
+      <c r="H4">
+        <v>2.421635</v>
+      </c>
+      <c r="I4">
+        <v>0.6182385918170351</v>
+      </c>
+      <c r="J4">
+        <v>0.6952272432352978</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.1409635</v>
+      </c>
+      <c r="N4">
+        <v>0.281927</v>
+      </c>
+      <c r="O4">
+        <v>0.127302058387171</v>
+      </c>
+      <c r="P4">
+        <v>0.0886289202516707</v>
+      </c>
+      <c r="Q4">
+        <v>0.1137873817741667</v>
+      </c>
+      <c r="R4">
+        <v>0.6827242906450001</v>
+      </c>
+      <c r="S4">
+        <v>0.07870304531269458</v>
+      </c>
+      <c r="T4">
+        <v>0.06161723989749008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8072116666666668</v>
+      </c>
+      <c r="H5">
+        <v>2.421635</v>
+      </c>
+      <c r="I5">
+        <v>0.6182385918170351</v>
+      </c>
+      <c r="J5">
+        <v>0.6952272432352978</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.9663516666666667</v>
+      </c>
+      <c r="N5">
+        <v>2.899055</v>
+      </c>
+      <c r="O5">
+        <v>0.872697941612829</v>
+      </c>
+      <c r="P5">
+        <v>0.9113710797483293</v>
+      </c>
+      <c r="Q5">
+        <v>0.7800503394361112</v>
+      </c>
+      <c r="R5">
+        <v>7.020453054925001</v>
+      </c>
+      <c r="S5">
+        <v>0.5395355465043405</v>
+      </c>
+      <c r="T5">
+        <v>0.6336100033378078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.064689</v>
+      </c>
+      <c r="H6">
+        <v>0.194067</v>
+      </c>
+      <c r="I6">
+        <v>0.0495449185356821</v>
+      </c>
+      <c r="J6">
+        <v>0.05571469912391608</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.1409635</v>
+      </c>
+      <c r="N6">
+        <v>0.281927</v>
+      </c>
+      <c r="O6">
+        <v>0.127302058387171</v>
+      </c>
+      <c r="P6">
+        <v>0.0886289202516707</v>
+      </c>
+      <c r="Q6">
+        <v>0.009118787851499999</v>
+      </c>
+      <c r="R6">
+        <v>0.05471272710899999</v>
+      </c>
+      <c r="S6">
+        <v>0.006307170112217033</v>
+      </c>
+      <c r="T6">
+        <v>0.004937933625499385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.064689</v>
+      </c>
+      <c r="H7">
+        <v>0.194067</v>
+      </c>
+      <c r="I7">
+        <v>0.0495449185356821</v>
+      </c>
+      <c r="J7">
+        <v>0.05571469912391608</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9663516666666667</v>
+      </c>
+      <c r="N7">
+        <v>2.899055</v>
+      </c>
+      <c r="O7">
+        <v>0.872697941612829</v>
+      </c>
+      <c r="P7">
+        <v>0.9113710797483293</v>
+      </c>
+      <c r="Q7">
+        <v>0.06251232296500001</v>
+      </c>
+      <c r="R7">
+        <v>0.562610906685</v>
+      </c>
+      <c r="S7">
+        <v>0.04323774842346507</v>
+      </c>
+      <c r="T7">
+        <v>0.05077676549841669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.176565</v>
+      </c>
+      <c r="H8">
+        <v>0.35313</v>
+      </c>
+      <c r="I8">
+        <v>0.1352300783943593</v>
+      </c>
+      <c r="J8">
+        <v>0.1013800991494097</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.1409635</v>
+      </c>
+      <c r="N8">
+        <v>0.281927</v>
+      </c>
+      <c r="O8">
+        <v>0.127302058387171</v>
+      </c>
+      <c r="P8">
+        <v>0.0886289202516707</v>
+      </c>
+      <c r="Q8">
+        <v>0.0248892203775</v>
+      </c>
+      <c r="R8">
+        <v>0.09955688151</v>
+      </c>
+      <c r="S8">
+        <v>0.01721506733546044</v>
+      </c>
+      <c r="T8">
+        <v>0.008985208722619497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.122775703394442</v>
-      </c>
-      <c r="H4">
-        <v>0.122775703394442</v>
-      </c>
-      <c r="I4">
-        <v>0.1074985250364116</v>
-      </c>
-      <c r="J4">
-        <v>0.1074985250364116</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.86799239367063</v>
-      </c>
-      <c r="N4">
-        <v>0.86799239367063</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.106568376673937</v>
-      </c>
-      <c r="R4">
-        <v>0.106568376673937</v>
-      </c>
-      <c r="S4">
-        <v>0.1074985250364116</v>
-      </c>
-      <c r="T4">
-        <v>0.1074985250364116</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.176565</v>
+      </c>
+      <c r="H9">
+        <v>0.35313</v>
+      </c>
+      <c r="I9">
+        <v>0.1352300783943593</v>
+      </c>
+      <c r="J9">
+        <v>0.1013800991494097</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9663516666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.899055</v>
+      </c>
+      <c r="O9">
+        <v>0.872697941612829</v>
+      </c>
+      <c r="P9">
+        <v>0.9113710797483293</v>
+      </c>
+      <c r="Q9">
+        <v>0.170623882025</v>
+      </c>
+      <c r="R9">
+        <v>1.02374329215</v>
+      </c>
+      <c r="S9">
+        <v>0.1180150110588989</v>
+      </c>
+      <c r="T9">
+        <v>0.09239489042679017</v>
       </c>
     </row>
   </sheetData>
